--- a/data/Table4_Rem_Potential.xlsx
+++ b/data/Table4_Rem_Potential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FEC72A-2D5D-49C9-8775-64C087E4459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC4789-B2F7-445B-A937-FE28ED6AA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25560" yWindow="2460" windowWidth="21600" windowHeight="11235" xr2:uid="{07898949-2742-465B-B7A1-9BE14A5D4679}"/>
+    <workbookView xWindow="-20175" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{07898949-2742-465B-B7A1-9BE14A5D4679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Evaluation Criteria</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Help</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,19 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41034C-965B-4234-8238-0FE8244581F9}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,43 +452,46 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
